--- a/2017/Arima/metrics.xlsx
+++ b/2017/Arima/metrics.xlsx
@@ -55,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +475,11 @@
           <t>Taxa de Acerto</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -505,6 +511,9 @@
       <c r="I2" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J2" s="2" t="n">
+        <v>3.723113425925926e-06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -536,6 +545,9 @@
       <c r="I3" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J3" s="2" t="n">
+        <v>2.959444444444444e-06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,6 +579,9 @@
       <c r="I4" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J4" s="2" t="n">
+        <v>3.520717592592593e-06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -598,6 +613,9 @@
       <c r="I5" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J5" s="2" t="n">
+        <v>1.574050925925926e-06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -629,6 +647,9 @@
       <c r="I6" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J6" s="2" t="n">
+        <v>2.175092592592593e-06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,6 +681,9 @@
       <c r="I7" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J7" s="2" t="n">
+        <v>3.052025462962963e-06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -691,6 +715,9 @@
       <c r="I8" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J8" s="2" t="n">
+        <v>2.326898148148148e-06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -722,6 +749,9 @@
       <c r="I9" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J9" s="2" t="n">
+        <v>3.876539351851852e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -753,6 +783,9 @@
       <c r="I10" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J10" s="2" t="n">
+        <v>2.834618055555555e-06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -784,6 +817,9 @@
       <c r="I11" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J11" s="2" t="n">
+        <v>1.394143518518519e-06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -815,6 +851,9 @@
       <c r="I12" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J12" s="2" t="n">
+        <v>1.490798611111111e-06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -846,6 +885,9 @@
       <c r="I13" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J13" s="2" t="n">
+        <v>1.102893518518518e-06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -877,6 +919,9 @@
       <c r="I14" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J14" s="2" t="n">
+        <v>2.623842592592593e-06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -908,6 +953,9 @@
       <c r="I15" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J15" s="2" t="n">
+        <v>6.882511574074073e-06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -939,6 +987,9 @@
       <c r="I16" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J16" s="2" t="n">
+        <v>8.828761574074074e-06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -970,6 +1021,9 @@
       <c r="I17" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J17" s="2" t="n">
+        <v>4.248657407407407e-06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1001,6 +1055,9 @@
       <c r="I18" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J18" s="2" t="n">
+        <v>6.314097222222222e-06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1032,6 +1089,9 @@
       <c r="I19" t="n">
         <v>62.02455871441801</v>
       </c>
+      <c r="J19" s="2" t="n">
+        <v>6.342002314814815e-06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1063,6 +1123,9 @@
       <c r="I20" t="n">
         <v>60.80702197010698</v>
       </c>
+      <c r="J20" s="2" t="n">
+        <v>4.339155092592593e-06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1094,6 +1157,9 @@
       <c r="I21" t="n">
         <v>60.80702197010698</v>
       </c>
+      <c r="J21" s="2" t="n">
+        <v>1.685671296296296e-06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1125,6 +1191,9 @@
       <c r="I22" t="n">
         <v>60.80702197010698</v>
       </c>
+      <c r="J22" s="2" t="n">
+        <v>5.370034722222222e-06</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1156,6 +1225,9 @@
       <c r="I23" t="n">
         <v>60.80702197010698</v>
       </c>
+      <c r="J23" s="2" t="n">
+        <v>4.063472222222222e-06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1187,6 +1259,9 @@
       <c r="I24" t="n">
         <v>60.80702197010698</v>
       </c>
+      <c r="J24" s="2" t="n">
+        <v>4.574953703703704e-06</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1218,6 +1293,9 @@
       <c r="I25" t="n">
         <v>60.80702197010698</v>
       </c>
+      <c r="J25" s="2" t="n">
+        <v>6.988946759259259e-06</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1249,6 +1327,9 @@
       <c r="I26" t="n">
         <v>60.80702197010698</v>
       </c>
+      <c r="J26" s="2" t="n">
+        <v>3.259050925925926e-06</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1280,6 +1361,9 @@
       <c r="I27" t="n">
         <v>58.92912514293388</v>
       </c>
+      <c r="J27" s="2" t="n">
+        <v>2.989097222222222e-06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1310,6 +1394,9 @@
       </c>
       <c r="I28" t="n">
         <v>60.80702197010698</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>3.910659722222222e-06</v>
       </c>
     </row>
   </sheetData>
